--- a/supplement/7_rhythmic_genes_enrichment.xlsx
+++ b/supplement/7_rhythmic_genes_enrichment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB71F75-248D-7A4C-A191-05F4D811B78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1166598F-3CC4-E149-B5EA-04B60B6E9762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="27160" windowHeight="16940" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="11260" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ophio_cflo_24h_rhythmic_enrich" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="beau_08h_rhythmic_enrichment" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">beau_24h_rhythmic_enrichment!$A$1:$A$120</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ophio_cflo_24h_rhythmic_enrich!$H$1:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">beau_24h_rhythmic_enrichment!$A$1:$K$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ophio_cflo_24h_rhythmic_enrich!$A$1:$A$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1433,8 +1433,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1486,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>233.33333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>244</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>247</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>116.66666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>250</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>253</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>57.142857142857146</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>256</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>1.986325056278502E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>24.88262910798122</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>262</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>24.229074889867839</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>264</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>24.229074889867839</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>31.250000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>2.839032998362937E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>22.916666666666668</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>272</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>25.149700598802394</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>274</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>20.760233918128655</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>276</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>20.90909090909091</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>278</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>20.845921450151057</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>279</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>283</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>23.943661971830984</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>23.943661971830984</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>22.61904761904762</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>294</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>296</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>297</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>303</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>305</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>306</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>307</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>50</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>309</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>311</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>317</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>128</v>
       </c>
@@ -3897,11 +3897,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H72" xr:uid="{3A45F62B-E52A-014D-8295-C0015931C15E}">
+  <autoFilter ref="A1:A72" xr:uid="{15FD62A9-2630-AB4C-8D03-0D027C20EE58}">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Over-represented"/>
-      </filters>
+      <customFilters>
+        <customFilter val="*kinase*"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4049,7 +4049,7 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4092,7 +4092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>2.7113830285158112E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>3.3681426977250298E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>1.475374626252907E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>2.0149937094488531E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>107</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>2.028546500149982E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>109</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>114</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>119</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>122</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>126</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
@@ -7916,11 +7916,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A120" xr:uid="{C5B6EC5C-153E-ED43-8184-BE2966E97635}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="*binding*"/>
-      </customFilters>
+  <autoFilter ref="A1:K120" xr:uid="{E01A630F-38FD-A941-85FF-445DDF2900FD}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Over-represented"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7931,7 +7931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892E129E-CE11-9942-9BF1-010793ED3EB3}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
